--- a/Batteries/Battery Log 12-13-14.xlsx
+++ b/Batteries/Battery Log 12-13-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Charged</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>C 9:00</t>
+  </si>
+  <si>
+    <t>CF 9:00</t>
+  </si>
+  <si>
+    <t>D 9:00</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +719,12 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
@@ -724,6 +736,9 @@
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
